--- a/www.eia.gov/electricity/monthly/xls/table_4_08_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_08_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
-    <t>Table 4.8.B. Receipts of Petroleum Coke Delivered for Electricity Generation by State, (Year-to-Date) October 2016 and 2015</t>
+    <t>Table 4.8.B. Receipts of Petroleum Coke Delivered for Electricity Generation by State, (Year-to-Date) November 2016 and 2015</t>
   </si>
   <si>
     <t>(Thousand Tons)</t>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="13">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D13" s="14">
         <v>-1</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="13">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="16">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D16" s="17">
         <v>-1</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1776,25 +1776,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>867</v>
+        <v>940</v>
       </c>
       <c r="C17" s="13">
-        <v>1048</v>
+        <v>1192</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.17</v>
+        <v>-0.21</v>
       </c>
       <c r="E17" s="13">
+        <v>485</v>
+      </c>
+      <c r="F17" s="13">
+        <v>666</v>
+      </c>
+      <c r="G17" s="13">
+        <v>437</v>
+      </c>
+      <c r="H17" s="13">
         <v>458</v>
-      </c>
-      <c r="F17" s="13">
-        <v>587</v>
-      </c>
-      <c r="G17" s="13">
-        <v>391</v>
-      </c>
-      <c r="H17" s="13">
-        <v>399</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="13">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1855,16 +1855,16 @@
         <v>162</v>
       </c>
       <c r="C19" s="16">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="D19" s="17">
-        <v>-0.46</v>
+        <v>-0.54</v>
       </c>
       <c r="E19" s="16">
         <v>162</v>
       </c>
       <c r="F19" s="16">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="G19" s="16">
         <v>0</v>
@@ -1890,19 +1890,19 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C20" s="16">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D20" s="17">
-        <v>-6.0999999999999999E-2</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="E20" s="16">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F20" s="16">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="G20" s="16">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="C21" s="16">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="D21" s="17">
-        <v>1.2E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E21" s="16">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="H21" s="16">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1966,19 +1966,19 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C22" s="16">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.38</v>
+        <v>-0.35</v>
       </c>
       <c r="E22" s="16">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F22" s="16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="16">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,19 +2308,19 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>1251</v>
+        <v>1334</v>
       </c>
       <c r="C31" s="13">
-        <v>948</v>
+        <v>1043</v>
       </c>
       <c r="D31" s="14">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E31" s="13">
-        <v>1165</v>
+        <v>1241</v>
       </c>
       <c r="F31" s="13">
-        <v>841</v>
+        <v>936</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="13">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L31" s="13">
         <v>107</v>
@@ -2422,19 +2422,19 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>1165</v>
+        <v>1241</v>
       </c>
       <c r="C34" s="16">
-        <v>841</v>
+        <v>936</v>
       </c>
       <c r="D34" s="17">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="E34" s="16">
-        <v>1165</v>
+        <v>1241</v>
       </c>
       <c r="F34" s="16">
-        <v>841</v>
+        <v>936</v>
       </c>
       <c r="G34" s="16">
         <v>0</v>
@@ -2460,13 +2460,13 @@
         <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C35" s="16">
         <v>107</v>
       </c>
       <c r="D35" s="17">
-        <v>-0.2</v>
+        <v>-0.13</v>
       </c>
       <c r="E35" s="16">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L35" s="16">
         <v>107</v>
@@ -2688,19 +2688,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C41" s="13">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="D41" s="14">
-        <v>-0.87</v>
+        <v>-0.86</v>
       </c>
       <c r="E41" s="13">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F41" s="13">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="G41" s="13">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C43" s="16">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="D43" s="17">
-        <v>-0.87</v>
+        <v>-0.86</v>
       </c>
       <c r="E43" s="16">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F43" s="16">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2878,19 +2878,19 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>1288</v>
+        <v>1451</v>
       </c>
       <c r="C46" s="13">
-        <v>1479</v>
+        <v>1611</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.13</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E46" s="13">
-        <v>1288</v>
+        <v>1451</v>
       </c>
       <c r="F46" s="13">
-        <v>1479</v>
+        <v>1611</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2954,19 +2954,19 @@
         <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>1288</v>
+        <v>1451</v>
       </c>
       <c r="C48" s="16">
-        <v>1479</v>
+        <v>1611</v>
       </c>
       <c r="D48" s="17">
-        <v>-0.13</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E48" s="16">
-        <v>1288</v>
+        <v>1451</v>
       </c>
       <c r="F48" s="16">
-        <v>1479</v>
+        <v>1611</v>
       </c>
       <c r="G48" s="16">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>3470</v>
+        <v>3803</v>
       </c>
       <c r="C67" s="13">
-        <v>4075</v>
+        <v>4504</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="E67" s="13">
-        <v>2976</v>
+        <v>3254</v>
       </c>
       <c r="F67" s="13">
-        <v>3418</v>
+        <v>3772</v>
       </c>
       <c r="G67" s="13">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="H67" s="13">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="13">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L67" s="13">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
